--- a/docs/excel/TBirckInfo.xlsx
+++ b/docs/excel/TBirckInfo.xlsx
@@ -211,38 +211,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9-6-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-0-0-1</t>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1增益2负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48-3000-1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4-4-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9-6-1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-8-1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-10-2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-20-3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-0-0-1</t>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1增益2负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48-3000-1-6</t>
+    <t>14-8-2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-10-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-20-4-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>29</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>33</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>45</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>45</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>45</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5">
         <v>3500</v>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5">
         <v>2000</v>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5">
         <v>2500</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5">
         <v>2000</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
